--- a/Laboratory-4/Tiempos P4.xlsx
+++ b/Laboratory-4/Tiempos P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Master Robotics\Repositorios\PACS_labs\Laboratory-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE2FC4-A53C-41E5-9F47-12D439A4EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424EF291-E17A-4A73-A7CC-51CDAE32F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D57953F-EEA6-4886-867F-DAC3C2515231}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="411">
   <si>
     <t>Column1</t>
   </si>
@@ -1275,6 +1275,12 @@
   </si>
   <si>
     <t>10 mayores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 4 </t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2454,7 @@
   <dimension ref="A1:GQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9252,6 +9258,36 @@
     <row r="16" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
